--- a/API Files/Acuity Research/Fundraising.xlsx
+++ b/API Files/Acuity Research/Fundraising.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\API Files\Acuity Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\PE4.7Automation\API Files\Acuity Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9027AF5E-CABF-4327-99F6-70618E8EA558}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Fundraising" r:id="rId1" sheetId="1"/>
+    <sheet name="Fundraising" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="224">
   <si>
     <t>Fundraising with Institution NSAdmin Record01</t>
   </si>
@@ -709,8 +708,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1151,101 +1149,101 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1262,10 +1260,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1300,7 +1298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1335,7 +1333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1429,21 +1427,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1460,7 +1458,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1512,23 +1510,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="42.75" r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -1569,10 +1567,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>217</v>
-      </c>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1610,10 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>217</v>
-      </c>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1651,10 +1643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>217</v>
-      </c>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -1692,10 +1681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>217</v>
-      </c>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1733,10 +1719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>217</v>
-      </c>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -1774,10 +1757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>217</v>
-      </c>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -1815,10 +1795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>217</v>
-      </c>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -1856,10 +1833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>217</v>
-      </c>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1897,10 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>217</v>
-      </c>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -1938,10 +1909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>217</v>
-      </c>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -1979,10 +1947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>217</v>
-      </c>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -2020,10 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>217</v>
-      </c>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -2061,10 +2023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>217</v>
-      </c>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -2102,10 +2061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>217</v>
-      </c>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>66</v>
       </c>
@@ -2143,10 +2099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>217</v>
-      </c>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>70</v>
       </c>
@@ -2184,10 +2137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>217</v>
-      </c>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>74</v>
       </c>
@@ -2225,10 +2175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>217</v>
-      </c>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>78</v>
       </c>
@@ -2266,10 +2213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>82</v>
       </c>
@@ -2307,10 +2251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>217</v>
-      </c>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -2348,10 +2289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>217</v>
-      </c>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -2389,10 +2327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>217</v>
-      </c>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>94</v>
       </c>
@@ -2430,10 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>217</v>
-      </c>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>100</v>
       </c>
@@ -2471,10 +2403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>217</v>
-      </c>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>104</v>
       </c>
@@ -2512,10 +2441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>217</v>
-      </c>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>108</v>
       </c>
@@ -2553,10 +2479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>217</v>
-      </c>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>112</v>
       </c>
@@ -2594,10 +2517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>217</v>
-      </c>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>116</v>
       </c>
@@ -2635,10 +2555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>217</v>
-      </c>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>119</v>
       </c>
@@ -2676,10 +2593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>217</v>
-      </c>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>122</v>
       </c>
@@ -2717,10 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>217</v>
-      </c>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>125</v>
       </c>
@@ -2758,10 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>217</v>
-      </c>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>128</v>
       </c>
@@ -2799,10 +2707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>217</v>
-      </c>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>218</v>
       </c>
@@ -2816,10 +2721,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>217</v>
-      </c>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>219</v>
       </c>
@@ -2833,10 +2735,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>217</v>
-      </c>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>220</v>
       </c>
@@ -2850,10 +2749,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>217</v>
-      </c>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>221</v>
       </c>
@@ -2867,10 +2763,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>217</v>
-      </c>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>131</v>
       </c>
@@ -2887,10 +2780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>217</v>
-      </c>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>134</v>
       </c>
@@ -2904,10 +2794,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>217</v>
-      </c>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>137</v>
       </c>
@@ -2921,10 +2808,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>217</v>
-      </c>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>140</v>
       </c>
@@ -2938,10 +2822,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>217</v>
-      </c>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>143</v>
       </c>
@@ -2955,10 +2836,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>217</v>
-      </c>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>146</v>
       </c>
@@ -2972,10 +2850,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>217</v>
-      </c>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>149</v>
       </c>
@@ -2989,10 +2864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>217</v>
-      </c>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>152</v>
       </c>
@@ -3006,10 +2878,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>217</v>
-      </c>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>155</v>
       </c>
@@ -3023,10 +2892,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>217</v>
-      </c>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>157</v>
       </c>
@@ -3040,10 +2906,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>217</v>
-      </c>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>159</v>
       </c>
@@ -3057,10 +2920,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>217</v>
-      </c>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>161</v>
       </c>
@@ -3074,10 +2934,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>217</v>
-      </c>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>163</v>
       </c>
@@ -3091,10 +2948,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>217</v>
-      </c>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>165</v>
       </c>
@@ -3108,10 +2962,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>217</v>
-      </c>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>167</v>
       </c>
@@ -3125,10 +2976,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>217</v>
-      </c>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>169</v>
       </c>
@@ -3142,10 +2990,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>217</v>
-      </c>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>171</v>
       </c>
@@ -3159,10 +3004,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>217</v>
-      </c>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>173</v>
       </c>
@@ -3176,10 +3018,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>217</v>
-      </c>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>175</v>
       </c>
@@ -3193,10 +3032,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>217</v>
-      </c>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>177</v>
       </c>
@@ -3210,10 +3046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>217</v>
-      </c>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>179</v>
       </c>
@@ -3227,10 +3060,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>217</v>
-      </c>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>181</v>
       </c>
@@ -3244,10 +3074,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>217</v>
-      </c>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>183</v>
       </c>
@@ -3261,10 +3088,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>217</v>
-      </c>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>185</v>
       </c>
@@ -3278,10 +3102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>217</v>
-      </c>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>187</v>
       </c>
@@ -3295,7 +3116,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>217</v>
+      </c>
       <c r="B61" t="s">
         <v>189</v>
       </c>
@@ -3312,7 +3136,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>217</v>
+      </c>
       <c r="B62" t="s">
         <v>193</v>
       </c>
@@ -3329,7 +3156,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>217</v>
+      </c>
       <c r="B63" t="s">
         <v>195</v>
       </c>
@@ -3349,7 +3179,10 @@
         <v>7686564654</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>217</v>
+      </c>
       <c r="B64" t="s">
         <v>197</v>
       </c>
@@ -3366,7 +3199,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>217</v>
+      </c>
       <c r="B65" t="s">
         <v>199</v>
       </c>
@@ -3383,7 +3219,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>217</v>
+      </c>
       <c r="B66" t="s">
         <v>200</v>
       </c>
@@ -3403,7 +3242,10 @@
         <v>7686564654</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>217</v>
+      </c>
       <c r="B67" t="s">
         <v>201</v>
       </c>
@@ -3423,7 +3265,10 @@
         <v>7686564654</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>217</v>
+      </c>
       <c r="B68" t="s">
         <v>203</v>
       </c>
@@ -3444,7 +3289,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" r:id="rId1" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>